--- a/Turma Maio 2017/Aula 2/Aula Se.xlsx
+++ b/Turma Maio 2017/Aula 2/Aula Se.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Media" sheetId="1" r:id="rId1"/>
     <sheet name="Media_Poderada" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Márcio</t>
   </si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>cont se</t>
+  </si>
+  <si>
+    <t>marcio</t>
   </si>
 </sst>
 </file>
@@ -303,13 +307,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,8 +586,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5565912" y="0"/>
-          <a:ext cx="1176131" cy="361629"/>
+          <a:off x="5554241" y="0"/>
+          <a:ext cx="1171237" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -1129,50 +1133,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1282,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F15" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,54 +1298,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1366,16 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <f>AVERAGE(C9:E9)</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f>IF(F9&gt;=6,"Aprovado",IF(F9&gt;=4,"Recuperação","Reprovado"))</f>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -1390,8 +1400,13 @@
       <c r="E10" s="7">
         <v>8.5</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f t="shared" ref="G10:G14" si="0">IF(F10&gt;=6,"Aprovado",IF(F10&gt;=4,"Recuperação","Reprovado"))</f>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1406,24 +1421,37 @@
       <c r="E11" s="7">
         <v>9.5</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="5">
+        <f t="shared" ref="F10:F14" si="1">AVERAGE(C11:E11)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="E12" s="7">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="G12" s="12" t="str">
+        <f>IF(F12&gt;=6,"Aprovado",
+IF(F12&gt;=4,"Recuperação","Reprovado"))</f>
+        <v>Reprovado</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1438,8 +1466,14 @@
       <c r="E13" s="7">
         <v>4</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="G13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Recuperação</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -1454,67 +1488,82 @@
       <c r="E14" s="10">
         <v>9.5</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f>COUNTIFS(G9:G14,"aprovado",F9:F14,10)</f>
+        <v>2</v>
+      </c>
+    </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="13" t="e">
+        <f>com</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1525,4 +1574,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>COUNTA(A1:A15)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Turma Maio 2017/Aula 2/Aula Se.xlsx
+++ b/Turma Maio 2017/Aula 2/Aula Se.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -586,8 +586,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5554241" y="0"/>
-          <a:ext cx="1171237" cy="361629"/>
+          <a:off x="5549623" y="0"/>
+          <a:ext cx="1169505" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -1123,7 +1123,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F15" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,12 +1379,12 @@
         <v>10</v>
       </c>
       <c r="F9" s="5">
-        <f>AVERAGE(C9:E9)</f>
+        <f>(C9*2/10)+(D9*3/10)+(E9*5/10)</f>
         <v>10</v>
       </c>
       <c r="G9" s="12" t="str">
-        <f>IF(F9&gt;=6,"Aprovado",IF(F9&gt;=4,"Recuperação","Reprovado"))</f>
-        <v>Aprovado</v>
+        <f>IF(F9&gt;=6,"Aprovado direto",IF(F9&gt;=4,"Recuperação","Reprovado"))</f>
+        <v>Aprovado direto</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1401,11 +1401,12 @@
         <v>8.5</v>
       </c>
       <c r="F10" s="5">
-        <v>10</v>
+        <f t="shared" ref="F10:F14" si="0">(C10*2/10)+(D10*3/10)+(E10*5/10)</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G10" s="12" t="str">
-        <f t="shared" ref="G10:G14" si="0">IF(F10&gt;=6,"Aprovado",IF(F10&gt;=4,"Recuperação","Reprovado"))</f>
-        <v>Aprovado</v>
+        <f>IF(F10&gt;=6,"Aprovado co louvor",IF(F10&gt;=4,"mais uma chance","s/f"))</f>
+        <v>Aprovado co louvor</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,12 +1423,12 @@
         <v>9.5</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ref="F10:F14" si="1">AVERAGE(C11:E11)</f>
-        <v>8.3333333333333339</v>
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="G11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Aprovado</v>
+        <f t="shared" ref="G11:G14" si="1">IF(F11&gt;=6,"Aprovado co louvor",IF(F11&gt;=4,"mais uma chance","s/f"))</f>
+        <v>Aprovado co louvor</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1444,13 +1445,12 @@
         <v>3</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="G12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="G12" s="12" t="str">
-        <f>IF(F12&gt;=6,"Aprovado",
-IF(F12&gt;=4,"Recuperação","Reprovado"))</f>
-        <v>Reprovado</v>
+        <v>s/f</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1467,12 +1467,12 @@
         <v>4</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="G13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="G13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Recuperação</v>
+        <v>mais uma chance</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1489,21 +1489,15 @@
         <v>9.5</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="G14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Aprovado</v>
+        <v>Aprovado co louvor</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <f>COUNTIFS(G9:G14,"aprovado",F9:F14,10)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="13" t="e">
         <f>com</f>

--- a/Turma Maio 2017/Aula 2/Aula Se.xlsx
+++ b/Turma Maio 2017/Aula 2/Aula Se.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -314,6 +314,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,7 +1288,7 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,8 +1406,8 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="G10" s="12" t="str">
-        <f>IF(F10&gt;=6,"Aprovado co louvor",IF(F10&gt;=4,"mais uma chance","s/f"))</f>
-        <v>Aprovado co louvor</v>
+        <f t="shared" ref="G10:G14" si="1">IF(F10&gt;=6,"Aprovado direto",IF(F10&gt;=4,"Recuperação","Reprovado"))</f>
+        <v>Aprovado direto</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1427,9 +1428,10 @@
         <v>8.4</v>
       </c>
       <c r="G11" s="12" t="str">
-        <f t="shared" ref="G11:G14" si="1">IF(F11&gt;=6,"Aprovado co louvor",IF(F11&gt;=4,"mais uma chance","s/f"))</f>
-        <v>Aprovado co louvor</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>Aprovado direto</v>
+      </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1450,7 +1452,7 @@
       </c>
       <c r="G12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>s/f</v>
+        <v>Reprovado</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1472,7 +1474,7 @@
       </c>
       <c r="G13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>mais uma chance</v>
+        <v>Recuperação</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1494,7 +1496,7 @@
       </c>
       <c r="G14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Aprovado co louvor</v>
+        <v>Aprovado direto</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1568,8 @@
     <mergeCell ref="B5:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
